--- a/src/main/resources/contacts.xlsx
+++ b/src/main/resources/contacts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Nom</t>
   </si>
@@ -20,6 +20,24 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>0708483575</t>
+  </si>
+  <si>
+    <t>0707461281</t>
+  </si>
+  <si>
+    <t>0749300265</t>
+  </si>
+  <si>
+    <t>0767626349</t>
+  </si>
+  <si>
+    <t>0709882886</t>
   </si>
 </sst>
 </file>
@@ -51,18 +69,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -286,26 +318,66 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="1">
-        <v>7.08483575E8</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="1">
-        <v>7.07461281E8</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="1">
-        <v>7.49300265E8</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1">
-        <v>7.67626349E8</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>